--- a/lab04/sheet.xlsx
+++ b/lab04/sheet.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stingrayyee/Documents/GitHub/5008/lab04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinruiyi/Desktop/5008/CS 5008/lab04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5247656F-091B-8342-8D8E-28DD4A671EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB2F322-F8FB-1B42-B351-3F7D968B09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{48B67152-48B4-2E47-9248-0970AA644C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Input Size</t>
   </si>
@@ -50,21 +50,12 @@
     <t>c Sort running time (s)</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>1 - Explain what you think the worst-case big O complexity and the best-case big O complexity of bubble sort is as implemented in our code. Give reasons for why you think that is the big O complexity for each case.</t>
   </si>
   <si>
-    <t>Worst  case Big O is n*(n -1)/2. Best case big. Best case Big O is the O(n^2). Fro the worst case, the given array is in descending order, we need to swap every single pairs. But for the best case, we only need to traverse all the pair without any swap.</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 - Is there a more efficient way to write bubble sort that changes the performance in the best case? If so, describe (in general terms, we don't need the exact C code) how that implementation of bubble sort would be different. </t>
   </si>
   <si>
-    <t>for the inner loop. We only need to increment the j pointer to size - i -1. Since the last I element is already sorted.</t>
-  </si>
-  <si>
     <t>3 - Explain what you think the worst-case big O complexity and the best-case big O complexity of selection sort is as you've implemented it. Why do you think that?</t>
   </si>
   <si>
@@ -81,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">The Big O of standard sort algorithm of C library is nlogn. Becase it is a quick sort. </t>
+  </si>
+  <si>
+    <t>The worst  case is descending array.   Big O is n*(n -1)/2. The Best case  is an sorted array. Big O is the O(n^2). Fro the worst case, the given array is in descending order, we need to swap every single pairs. But for the best case, we only need to traverse all the pair without any swap.</t>
+  </si>
+  <si>
+    <t>For the inner loop. We only need to increment the j  to size - i -1. Since the last i element is already sorted.</t>
   </si>
 </sst>
 </file>
@@ -466,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1FC0D-CF19-D04F-990F-FC769CEEFAF4}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,11 +545,13 @@
         <f>A5*10</f>
         <v>1000000</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <f>B5*100*0.936287163821</f>
+        <v>2566.6559866582043</v>
+      </c>
+      <c r="C6">
+        <f>C5*100*0.936287163821</f>
+        <v>540.66510861500126</v>
       </c>
       <c r="D6">
         <v>0.10524600000000001</v>
@@ -563,11 +562,13 @@
         <f>A6*10</f>
         <v>10000000</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
+      <c r="B7">
+        <f>B6*100*0.98325617357621</f>
+        <v>252368.0344328018</v>
+      </c>
+      <c r="C7">
+        <f>C6*100*0.98325617357621</f>
+        <v>53161.230588295206</v>
       </c>
       <c r="D7">
         <v>1.028767</v>
@@ -575,53 +576,53 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
